--- a/Fundamental/project/laliga2019/shooting.xlsx
+++ b/Fundamental/project/laliga2019/shooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6FF25E-FB84-4B6B-A9D5-567131236DD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EEB6BF-8C35-4F8E-ACF4-A353A133F33E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC6DCE96-BEC6-4C45-85F8-74016310A18D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC6DCE96-BEC6-4C45-85F8-74016310A18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Player</t>
   </si>
@@ -49,21 +49,6 @@
   </si>
   <si>
     <t>SoT</t>
-  </si>
-  <si>
-    <t>SoT%</t>
-  </si>
-  <si>
-    <t>Sh/90</t>
-  </si>
-  <si>
-    <t>SoT/90</t>
-  </si>
-  <si>
-    <t>G/Sh</t>
-  </si>
-  <si>
-    <t>G/SoT</t>
   </si>
   <si>
     <t>FK</t>
@@ -812,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBADA26-0A72-46CD-A042-C55D0883A4EE}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +808,7 @@
     <col min="1" max="1" width="25.5546875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,34 +839,19 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>27</v>
@@ -898,34 +868,25 @@
       <c r="H2" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>32</v>
@@ -943,39 +904,24 @@
         <v>6</v>
       </c>
       <c r="I3" s="12">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J3" s="12">
-        <v>0.44</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="L3" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>32</v>
@@ -993,39 +939,24 @@
         <v>63</v>
       </c>
       <c r="I4" s="12">
-        <v>40.9</v>
+        <v>43</v>
       </c>
       <c r="J4" s="12">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1.97</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.32</v>
-      </c>
-      <c r="N4" s="12">
-        <v>43</v>
-      </c>
-      <c r="O4" s="12">
         <v>5</v>
       </c>
-      <c r="P4" s="10">
+      <c r="K4" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>28</v>
@@ -1043,39 +974,24 @@
         <v>23</v>
       </c>
       <c r="I5" s="12">
-        <v>41.8</v>
+        <v>0</v>
       </c>
       <c r="J5" s="12">
-        <v>1.94</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.16</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.39</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>31</v>
@@ -1093,39 +1009,24 @@
         <v>4</v>
       </c>
       <c r="I6" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J6" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>24</v>
@@ -1143,39 +1044,24 @@
         <v>3</v>
       </c>
       <c r="I7" s="12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J7" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>27</v>
@@ -1193,39 +1079,24 @@
         <v>3</v>
       </c>
       <c r="I8" s="12">
-        <v>33.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
-        <v>0.35</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0.11</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>30</v>
@@ -1243,39 +1114,24 @@
         <v>3</v>
       </c>
       <c r="I9" s="12">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>22</v>
@@ -1293,39 +1149,24 @@
         <v>4</v>
       </c>
       <c r="I10" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>25</v>
@@ -1343,39 +1184,24 @@
         <v>2</v>
       </c>
       <c r="I11" s="12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J11" s="12">
-        <v>0.34</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>32</v>
@@ -1393,39 +1219,24 @@
         <v>42</v>
       </c>
       <c r="I12" s="12">
-        <v>53.8</v>
+        <v>1</v>
       </c>
       <c r="J12" s="12">
-        <v>3.51</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1.89</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="N12" s="12">
         <v>1</v>
       </c>
-      <c r="O12" s="12">
+      <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="P12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>32</v>
@@ -1443,39 +1254,24 @@
         <v>14</v>
       </c>
       <c r="I13" s="12">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0.32</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>31</v>
@@ -1493,39 +1289,24 @@
         <v>7</v>
       </c>
       <c r="I14" s="12">
-        <v>29.2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="12">
-        <v>1.36</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N14" s="12">
-        <v>1</v>
-      </c>
-      <c r="O14" s="12">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>22</v>
@@ -1543,39 +1324,24 @@
         <v>5</v>
       </c>
       <c r="I15" s="12">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="12">
-        <v>0.61</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
         <v>16</v>
@@ -1593,39 +1359,24 @@
         <v>12</v>
       </c>
       <c r="I16" s="12">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="12">
-        <v>2.89</v>
-      </c>
-      <c r="K16" s="12">
-        <v>1.05</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
         <v>22</v>
@@ -1643,39 +1394,24 @@
         <v>1</v>
       </c>
       <c r="I17" s="12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J17" s="12">
-        <v>0.36</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0.09</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>25</v>
@@ -1692,34 +1428,25 @@
       <c r="H18" s="12">
         <v>0</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
       <c r="J18" s="12">
         <v>0</v>
       </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>19</v>
@@ -1737,39 +1464,24 @@
         <v>4</v>
       </c>
       <c r="I19" s="12">
-        <v>57.1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="12">
-        <v>1.24</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.71</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>21</v>
@@ -1787,39 +1499,24 @@
         <v>6</v>
       </c>
       <c r="I20" s="12">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="J20" s="12">
-        <v>2.65</v>
-      </c>
-      <c r="K20" s="12">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L20" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1">
         <v>28</v>
@@ -1837,39 +1534,24 @@
         <v>8</v>
       </c>
       <c r="I21" s="12">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="J21" s="12">
-        <v>2.87</v>
-      </c>
-      <c r="K21" s="12">
-        <v>1.77</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1">
         <v>22</v>
@@ -1887,39 +1569,24 @@
         <v>2</v>
       </c>
       <c r="I22" s="12">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
-        <v>1.26</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0</v>
-      </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>20</v>
@@ -1940,34 +1607,21 @@
         <v>0</v>
       </c>
       <c r="J23" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
         <v>26</v>
@@ -1985,39 +1639,24 @@
         <v>1</v>
       </c>
       <c r="I24" s="12">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="J24" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0.48</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
         <v>30</v>
@@ -2034,34 +1673,25 @@
       <c r="H25" s="12">
         <v>0</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
       <c r="J25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
         <v>21</v>
@@ -2079,39 +1709,24 @@
         <v>1</v>
       </c>
       <c r="I26" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="K26" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
-      <c r="N26" s="12">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>20</v>
@@ -2128,34 +1743,25 @@
       <c r="H27" s="12">
         <v>0</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
       <c r="J27" s="12">
         <v>0</v>
       </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1">
         <v>19</v>
@@ -2172,34 +1778,25 @@
       <c r="H28" s="12">
         <v>0</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
       <c r="J28" s="12">
         <v>0</v>
       </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
         <v>20</v>
@@ -2216,28 +1813,19 @@
       <c r="H29" s="15">
         <v>0</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
       <c r="J29" s="15">
         <v>0</v>
       </c>
-      <c r="K29" s="15">
-        <v>0</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15">
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
-      </c>
-      <c r="P29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -2255,27 +1843,12 @@
         <v>214</v>
       </c>
       <c r="I30" s="7">
-        <v>43.6</v>
+        <v>46</v>
       </c>
       <c r="J30" s="7">
-        <v>12.92</v>
-      </c>
-      <c r="K30" s="7">
-        <v>5.63</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="N30" s="7">
-        <v>46</v>
-      </c>
-      <c r="O30" s="7">
         <v>6</v>
       </c>
-      <c r="P30" s="16">
+      <c r="K30" s="16">
         <v>6</v>
       </c>
     </row>
